--- a/CASUAL/LA ONT/MENDOZA, MARICEL.xlsx
+++ b/CASUAL/LA ONT/MENDOZA, MARICEL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>UT(0-6-7)</t>
+  </si>
+  <si>
+    <t>UT(0-1-33)</t>
   </si>
 </sst>
 </file>
@@ -676,14 +679,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,9 +699,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,7 +1229,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1272,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1336,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1462,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1525,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1623,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1682,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1747,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1865,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2051,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2175,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2241,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2297,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2372,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2415,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2481,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2537,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3015,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="H8" sqref="H8"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,14 +3045,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3060,14 +3063,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3080,16 +3083,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3115,18 +3118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3173,7 +3176,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>67.36</v>
+        <v>67.165999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4556,11 +4559,15 @@
       <c r="A74" s="40">
         <v>44682</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -5538,17 +5545,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5616,14 +5623,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5634,14 +5641,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5654,16 +5661,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5689,18 +5696,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6794,14 +6801,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.76500000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/MENDOZA, MARICEL.xlsx
+++ b/CASUAL/LA ONT/MENDOZA, MARICEL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>UT(0-1-33)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-48)</t>
+  </si>
+  <si>
+    <t>UT(0-6-0)</t>
   </si>
 </sst>
 </file>
@@ -679,17 +688,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -699,6 +705,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,7 +1238,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1281,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1345,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1405,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1471,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1534,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1632,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1691,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1756,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1799,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1874,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2060,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2126,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2184,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2250,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2306,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2381,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2424,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2490,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2546,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2642,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3010,12 +3019,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="H8" sqref="H8"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,14 +3054,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3063,14 +3072,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3083,16 +3092,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3118,18 +3127,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3176,7 +3185,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>67.165999999999997</v>
+        <v>65.816000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4696,28 +4705,28 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D80" s="39"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="39">
+        <v>0.75</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4737,13 +4746,17 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B82" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>0.35</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4756,17 +4769,23 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="A83" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4774,19 +4793,17 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>44957</v>
+      <c r="A84" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4795,11 +4812,9 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>76</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
@@ -4810,20 +4825,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H85" s="39">
-        <v>7</v>
-      </c>
+      <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B86" s="20"/>
+        <v>44985</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C86" s="13">
         <v>1.25</v>
       </c>
@@ -4834,14 +4847,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>7</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4861,11 +4878,9 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45077</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>56</v>
-      </c>
+        <v>45046</v>
+      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
@@ -4876,39 +4891,41 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H88" s="39">
-        <v>2</v>
-      </c>
+      <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45077</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39"/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4918,38 +4935,38 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39">
-        <v>1</v>
-      </c>
+      <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="49">
-        <v>45064</v>
+      <c r="K90" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H91" s="39"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="39">
+        <v>1</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45064</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -4969,7 +4986,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -4989,7 +5006,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5009,7 +5026,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5029,7 +5046,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5048,15 +5065,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45231</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -5528,34 +5549,50 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="43"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="15"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="43"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5623,14 +5660,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5641,14 +5678,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5661,16 +5698,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5696,18 +5733,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6801,14 +6838,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>33</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.19400000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
